--- a/app/data/absenteeism_data_42.xlsx
+++ b/app/data/absenteeism_data_42.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59998</v>
+        <v>6485</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Sofia Nogueira</t>
+          <t>Eloah Santos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,27 +494,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>10670.83</v>
+        <v>6974.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73660</v>
+        <v>79361</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vinicius Fogaça</t>
+          <t>Samuel Gomes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,85 +523,85 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>7323.85</v>
+        <v>8809.110000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28134</v>
+        <v>70045</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Gustavo Peixoto</t>
+          <t>Danilo Barros</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45097</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>11193.57</v>
+        <v>9920.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58840</v>
+        <v>75867</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leandro da Rocha</t>
+          <t>Isadora Ferreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>10991.23</v>
+        <v>11851.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84125</v>
+        <v>16037</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alice Viana</t>
+          <t>Vitor Gabriel Monteiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,22 +610,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>6276.09</v>
+        <v>10133.61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44037</v>
+        <v>22265</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Benício Nascimento</t>
+          <t>Davi Luiz Melo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,36 +635,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45091</v>
       </c>
       <c r="G7" t="n">
-        <v>2994.96</v>
+        <v>9473.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>77549</v>
+        <v>61272</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maysa das Neves</t>
+          <t>Emanuel Dias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -674,94 +674,94 @@
         <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>5524.59</v>
+        <v>6428.78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>86452</v>
+        <v>20069</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>João Gonçalves</t>
+          <t>Cauê Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>12195.07</v>
+        <v>4189.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99249</v>
+        <v>23058</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Carolina Dias</t>
+          <t>Helena Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>7905.16</v>
+        <v>12038.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1378</v>
+        <v>64271</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Sophia da Mota</t>
+          <t>Dra. Melissa da Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45094</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>9748.620000000001</v>
+        <v>6150.01</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_42.xlsx
+++ b/app/data/absenteeism_data_42.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32657</v>
+        <v>9050</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Daniela Lopes</t>
+          <t>Catarina Cunha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45094</v>
+        <v>45096</v>
       </c>
       <c r="G2" t="n">
-        <v>8818.719999999999</v>
+        <v>4238.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>55093</v>
+        <v>30108</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gabrielly Barbosa</t>
+          <t>Laís Oliveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,138 +523,138 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>7621.7</v>
+        <v>2745.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92691</v>
+        <v>62818</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yago das Neves</t>
+          <t>Amanda Monteiro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>5275.74</v>
+        <v>11750.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>63449</v>
+        <v>8712</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fernanda Monteiro</t>
+          <t>Vitória Correia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>3674.36</v>
+        <v>12431.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25068</v>
+        <v>3746</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isaac Cavalcanti</t>
+          <t>Luiz Felipe Rodrigues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>8860.299999999999</v>
+        <v>8800.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99458</v>
+        <v>31084</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marcela Santos</t>
+          <t>Dr. Isaac Vieira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>7374.8</v>
+        <v>6316.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>47546</v>
+        <v>85734</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Vitor Azevedo</t>
+          <t>Maria Vitória Novaes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,60 +664,60 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45091</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>11305.17</v>
+        <v>11692.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>37154</v>
+        <v>180</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Emilly Monteiro</t>
+          <t>Luiz Henrique Silveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45097</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>10470.13</v>
+        <v>11223.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>27268</v>
+        <v>91816</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Pietro Mendes</t>
+          <t>Benjamin Aragão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -729,39 +729,39 @@
         <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45087</v>
       </c>
       <c r="G10" t="n">
-        <v>12086.9</v>
+        <v>4486.97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17487</v>
+        <v>34300</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marina Souza</t>
+          <t>Luigi Azevedo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>8184.42</v>
+        <v>7447.13</v>
       </c>
     </row>
   </sheetData>
